--- a/data/long_razon/P23_5-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_5-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-27,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-46,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-31,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-29,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-66,35; 45,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-78,55; 41,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-63,63; 35,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 150,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 16,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 38,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-23,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-54,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-37,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,03; 67,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,52; 260,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,18; -5,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 120,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,87; 16,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 146,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-25,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 34,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 120,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-47,57; 27,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 132,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 12,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 96,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,17; 59,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 48,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 80,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 95,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 49,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 62,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-18,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 84,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 38,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 78,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 167,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 54,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 78,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-28,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>128,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,1; 29,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 73,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,21; 360,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,27; 6,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 147,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-20,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 32,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 2,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,99; 93,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,91; -4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 47,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_5-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_5-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.3488590002731265</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4862069147642856</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1741731938962793</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.229918082376601</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2820997799437446</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.2228108961877813</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1117211456902637</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.3643932823218692</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3221542736412144</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.1704530285659176</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1459779188978056</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.2910314239754649</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.7478460926212418</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7925574265910654</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6926488117229532</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4506495952807525</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.6438284258713632</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2815962661004492</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.5489367740637114</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3644582831260937</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.6226852906382322</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.5109545130987017</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.5229677625098107</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.25212172318749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.3160592575899029</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2194529665036045</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.9492063990664964</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.139247922872986</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.3476730157115921</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.21702459553149</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.7595061463990072</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>2.065457386756312</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.07270953211635826</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.3183547159970346</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3767105345037156</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.159824280660873</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.2506174303104467</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3239632737208461</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1232454916940844</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3263139061159831</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.5243180036759917</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1539112880391642</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.136900080180839</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.4507527492966522</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3730678674058769</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.2495598689681024</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.0189488631630644</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.3954600891275985</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7418741150303043</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4018225648534679</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.7038170187980102</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5961401906575802</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7777633981662201</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.373303598315281</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4028691363424927</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1623241346144907</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.6755578713918031</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2276917342574865</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.4756789098117331</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2098898151718971</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.6598915413116401</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.126926134890632</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.9348346104598798</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.924877726573933</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.06494531865417151</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.9401909955120338</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.11352790554333</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.613872401421191</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1519023058762181</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.228128617908227</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.7283325213076908</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.543228047569551</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3170730155573536</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.289828383546165</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.20787813236234</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1245135877465449</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1706271513146876</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.5132776851835694</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2883287585392246</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.2710478488905982</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2481562950176685</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.3927185568632591</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2461068163905429</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.03517651031742109</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6669677313520882</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2342597915188317</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5579224801261966</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.5437765244585401</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.4676172710054144</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.01508261329133547</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.546932524927924</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.291042985471268</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5214071744598177</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.002307313096094359</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.4920818975540909</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.3185378869535107</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1256493874521484</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.3096976969548</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.25158094452433</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.6784083428585385</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.3149112973784011</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.251304104371284</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.09820979308047734</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.450567616066589</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.0703131296581425</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.896046224164763</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.04969025636942804</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.5674736430449684</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.07316864181968423</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.04714579668886296</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.4096255450959836</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.382867433387712</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.164803532040346</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.4146692172453088</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.0841949005801349</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.41147278503114</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.0543709392095088</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2093679496359529</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.1417542702502521</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.06593846187184238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.463622872846603</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4639449080897691</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1164326232522273</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1762786902183285</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1946751863110783</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.007432839403767791</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.3703187761717293</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.676571779240192</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2115558691420386</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.08397299375238423</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1636247344267611</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.3409964659854287</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.5630976429567234</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5610229929852258</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.483153347023094</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.440785314492776</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8311417283412544</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.016831955835339</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2878416876483216</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.02806782217175657</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5433322925541585</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.594050335777581</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.6325843913696023</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.3957088208452767</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.02783922183908497</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.1782022351125958</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.281460721542217</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.4442769182486483</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.008491659641846177</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.6827311902635009</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.01820631886288473</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.3990940065410958</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.01819761599842063</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.2283455608720876</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.4280223704715421</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.06386145685170036</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.4568508323699678</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.5229374995461435</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.1952402620314808</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.7361284108748001</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4099166126594529</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0.06827212521907448</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.3821456705366199</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.1645906816936069</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3407007293093396</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.1396157918916566</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.0256711170474185</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.3767614627440028</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.9505928504805587</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.3572946848804442</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.599785555925956</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.1845218232107959</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.7214931289619064</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1.60279166655265</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.7051043575091336</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.418138470525937</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.4904980711720188</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.7623070778855261</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>1.143033056112851</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.353010152112245</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.2754179305655243</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.09551165386652299</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.2775317989195419</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.2925233730596605</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.284143491034712</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.9888933016035747</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.2388773020866834</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.1915936053395898</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.2800988107075221</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.3840492105266038</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.06373342120974554</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.230724424413629</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.6508807105440747</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.5326349887021965</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.4589402475617954</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.7261125038657943</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.6249574608636798</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0.1137476074126032</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.631197790146259</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.6697971131808064</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.5250126057573831</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.07198832379909348</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.4537801546262663</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.6285402968908049</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.2797443912594028</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.5376619934153947</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2.075328587259502</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.6744842418733444</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.3479433072900754</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>2.886646120156947</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.5708827541971427</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.063004198455554</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.1274935656775462</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>1.147609797977539</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.5503867333930234</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.4110886697183284</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.2320055740376979</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.02399044819329036</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1048201443121919</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.005806677526619551</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.1710966400070786</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.4910789524699181</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.1173670172236085</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.0666750346309242</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.2025594638449502</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.2198149491833677</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.01177046382683472</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.03121799562409151</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.410205874296131</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.261450701415128</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.1786230798009973</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.2587831467245257</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.3302843018796688</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0.2507330273281459</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.2802421553319349</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1894206024657641</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.34320320007151</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.0441775649392109</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.1765537341492517</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1714976891588646</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.005697400447952921</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2750833043859491</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4908820295901333</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3292353668301355</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.0223570601535489</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.8239545930121834</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.09351107797922843</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.3971976938836541</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-0.06532445169447097</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.4492869718640298</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.197125339188393</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.2417295098070549</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
